--- a/data/trans_dic/P32E$calle_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32E$calle_2023-Estudios-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en la calle (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en la calle (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -818,7 +818,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en la calle (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en la calle (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$calle_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32E$calle_2023-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.2613812884948607</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1050750783413339</v>
+        <v>0.1050750783413338</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.2353442676635369</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1091760657598803</v>
+        <v>0.1171069012520852</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1041689660112857</v>
+        <v>0.1159086855003198</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4526163892002024</v>
+        <v>0.4487285231256377</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4202207301354287</v>
+        <v>0.518123275159026</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.400748999664459</v>
+        <v>0.4134336075094459</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.1733742534460832</v>
+        <v>0.1733742534460831</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.07840384244795355</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1521658273011944</v>
+        <v>0.1521658273011943</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09805811681390883</v>
+        <v>0.1004312689800821</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02139278097617344</v>
+        <v>0.02272735643220235</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09022692618755007</v>
+        <v>0.09153725250165204</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.295818190934373</v>
+        <v>0.2801163815110356</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2061395704709712</v>
+        <v>0.2325824362395296</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.247072519327585</v>
+        <v>0.2349501245056705</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.09013388143836758</v>
+        <v>0.09013388143836756</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.2582201272465796</v>
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09711888359677739</v>
+        <v>0.08637637741460381</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07098471668096387</v>
+        <v>0.0723032247549155</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2691321557338982</v>
+        <v>0.2776415604550272</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4898954773970941</v>
+        <v>0.4803100844673014</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.330389035658826</v>
+        <v>0.3289968737624132</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1155070795526564</v>
+        <v>0.1158780129923318</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07006269919176589</v>
+        <v>0.07737812621758687</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1127454755734291</v>
+        <v>0.1133411363644267</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2670167926927835</v>
+        <v>0.2586477605230064</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2937188430608696</v>
+        <v>0.2952664577604845</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2316555787980538</v>
+        <v>0.2341126130293383</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3184</v>
+        <v>3415</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3645</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13200</v>
+        <v>13087</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>2449</v>
+        <v>3020</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14023</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10251</v>
+        <v>10499</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>643</v>
+        <v>683</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12144</v>
+        <v>12321</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30925</v>
+        <v>29284</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6196</v>
+        <v>6991</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>33256</v>
+        <v>31624</v>
       </c>
     </row>
     <row r="12">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2678</v>
+        <v>2382</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3868</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7245</v>
+        <v>7474</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13509</v>
+        <v>13245</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18005</v>
+        <v>17929</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18553</v>
+        <v>18613</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4446</v>
+        <v>4911</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>25265</v>
+        <v>25398</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>42889</v>
+        <v>41545</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18640</v>
+        <v>18738</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>51911</v>
+        <v>52462</v>
       </c>
     </row>
     <row r="20">
